--- a/webscript/usat-communications.xlsx
+++ b/webscript/usat-communications.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="186">
   <si>
     <t>comp_count</t>
   </si>
@@ -37,9 +37,6 @@
     <t>start_date</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>USA Today - All sources</t>
   </si>
   <si>
@@ -574,13 +571,7 @@
     <t>NETFLIX Inc</t>
   </si>
   <si>
-    <t>20181231</t>
-  </si>
-  <si>
     <t>sc=usat and la=en and ((cellphone sector) or (cellphone industry) or (cellphone-sector) or (cellphone-industry) or (cellular sector) or (cellular industry) or (cellular-sector) or (cellular-industry) or (internet sector) or (internet industry) or (internet-sector) or (internet-industry) or (phone sector) or (phone industry) or (phone-sector) or (phone-industry) or (satellite sector) or (satellite industry) or (satellite-sector) or (satellite-industry) or (telecom sector) or (telecom industry) or (telecom-sector) or (telecom-industry) or (telecommunications sector) or (telecommunications industry) or (telecommunications-sector) or (telecommunications-industry) or (wireless sector) or (wireless industry) or (wireless-sector) or (wireless-industry))</t>
-  </si>
-  <si>
-    <t>20181001</t>
   </si>
 </sst>
 </file>
@@ -972,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>19871231</v>
@@ -984,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G2">
         <v>19871001</v>
@@ -995,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>19880630</v>
@@ -1007,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G3">
         <v>19880401</v>
@@ -1018,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>19880930</v>
@@ -1030,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G4">
         <v>19880701</v>
@@ -1041,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>19890630</v>
@@ -1053,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G5">
         <v>19890401</v>
@@ -1064,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>19891231</v>
@@ -1076,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G6">
         <v>19891001</v>
@@ -1087,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>19900331</v>
@@ -1099,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G7">
         <v>19900101</v>
@@ -1110,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>19900630</v>
@@ -1122,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G8">
         <v>19900401</v>
@@ -1133,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>19901231</v>
@@ -1145,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G9">
         <v>19901001</v>
@@ -1156,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>19910331</v>
@@ -1168,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G10">
         <v>19910101</v>
@@ -1179,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>19910630</v>
@@ -1191,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G11">
         <v>19910401</v>
@@ -1202,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>19910930</v>
@@ -1214,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G12">
         <v>19910701</v>
@@ -1225,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>19911231</v>
@@ -1237,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G13">
         <v>19911001</v>
@@ -1248,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>19920630</v>
@@ -1260,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G14">
         <v>19920401</v>
@@ -1271,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>19920930</v>
@@ -1283,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G15">
         <v>19920701</v>
@@ -1294,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>19921231</v>
@@ -1306,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G16">
         <v>19921001</v>
@@ -1317,7 +1308,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>19930331</v>
@@ -1329,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G17">
         <v>19930101</v>
@@ -1340,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>19930630</v>
@@ -1352,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G18">
         <v>19930401</v>
@@ -1363,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>19930930</v>
@@ -1375,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G19">
         <v>19930701</v>
@@ -1386,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>19931231</v>
@@ -1398,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G20">
         <v>19931001</v>
@@ -1409,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>19940630</v>
@@ -1421,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G21">
         <v>19940401</v>
@@ -1432,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>19940930</v>
@@ -1444,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G22">
         <v>19940701</v>
@@ -1455,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>19941231</v>
@@ -1467,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G23">
         <v>19941001</v>
@@ -1478,7 +1469,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>19950331</v>
@@ -1490,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G24">
         <v>19950101</v>
@@ -1501,7 +1492,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>19950630</v>
@@ -1513,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G25">
         <v>19950401</v>
@@ -1524,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>19950930</v>
@@ -1536,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G26">
         <v>19950701</v>
@@ -1547,7 +1538,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>19951231</v>
@@ -1559,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G27">
         <v>19951001</v>
@@ -1570,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>19960331</v>
@@ -1582,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G28">
         <v>19960101</v>
@@ -1593,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>19960630</v>
@@ -1605,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G29">
         <v>19960401</v>
@@ -1616,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>19960630</v>
@@ -1628,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G30">
         <v>19960401</v>
@@ -1639,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>19960930</v>
@@ -1651,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G31">
         <v>19960701</v>
@@ -1662,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>19961231</v>
@@ -1674,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G32">
         <v>19961001</v>
@@ -1685,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>19970331</v>
@@ -1697,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G33">
         <v>19970101</v>
@@ -1708,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>19970331</v>
@@ -1720,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G34">
         <v>19970101</v>
@@ -1731,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>19970331</v>
@@ -1743,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G35">
         <v>19970101</v>
@@ -1754,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>19970331</v>
@@ -1766,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G36">
         <v>19970101</v>
@@ -1777,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>19970331</v>
@@ -1789,7 +1780,7 @@
         <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G37">
         <v>19970101</v>
@@ -1800,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>19970331</v>
@@ -1812,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G38">
         <v>19970101</v>
@@ -1823,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>19970331</v>
@@ -1835,7 +1826,7 @@
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G39">
         <v>19970101</v>
@@ -1846,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>19970331</v>
@@ -1858,7 +1849,7 @@
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G40">
         <v>19970101</v>
@@ -1869,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>19970331</v>
@@ -1881,7 +1872,7 @@
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G41">
         <v>19970101</v>
@@ -1892,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42">
         <v>19970331</v>
@@ -1904,7 +1895,7 @@
         <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G42">
         <v>19970101</v>
@@ -1915,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>19970331</v>
@@ -1927,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G43">
         <v>19970101</v>
@@ -1938,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44">
         <v>19970331</v>
@@ -1950,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G44">
         <v>19970101</v>
@@ -1961,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45">
         <v>19970331</v>
@@ -1973,7 +1964,7 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G45">
         <v>19970101</v>
@@ -1984,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>19970331</v>
@@ -1996,7 +1987,7 @@
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G46">
         <v>19970101</v>
@@ -2007,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>19970331</v>
@@ -2019,7 +2010,7 @@
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G47">
         <v>19970101</v>
@@ -2030,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>19970630</v>
@@ -2042,7 +2033,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G48">
         <v>19970401</v>
@@ -2053,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>19970630</v>
@@ -2065,7 +2056,7 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G49">
         <v>19970401</v>
@@ -2076,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>19970630</v>
@@ -2088,7 +2079,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G50">
         <v>19970401</v>
@@ -2099,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>19970630</v>
@@ -2111,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G51">
         <v>19970401</v>
@@ -2122,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>19970630</v>
@@ -2134,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G52">
         <v>19970401</v>
@@ -2145,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>19970630</v>
@@ -2157,7 +2148,7 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G53">
         <v>19970401</v>
@@ -2168,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>19970630</v>
@@ -2180,7 +2171,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G54">
         <v>19970401</v>
@@ -2191,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55">
         <v>19970630</v>
@@ -2203,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G55">
         <v>19970401</v>
@@ -2214,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56">
         <v>19970630</v>
@@ -2226,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G56">
         <v>19970401</v>
@@ -2237,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>19970630</v>
@@ -2249,7 +2240,7 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G57">
         <v>19970401</v>
@@ -2260,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58">
         <v>19970930</v>
@@ -2272,7 +2263,7 @@
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G58">
         <v>19970701</v>
@@ -2283,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59">
         <v>19970930</v>
@@ -2295,7 +2286,7 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G59">
         <v>19970701</v>
@@ -2306,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60">
         <v>19970930</v>
@@ -2318,7 +2309,7 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G60">
         <v>19970701</v>
@@ -2329,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61">
         <v>19970930</v>
@@ -2341,7 +2332,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G61">
         <v>19970701</v>
@@ -2352,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>19970930</v>
@@ -2364,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G62">
         <v>19970701</v>
@@ -2375,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <v>19970930</v>
@@ -2387,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G63">
         <v>19970701</v>
@@ -2398,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>19970930</v>
@@ -2410,7 +2401,7 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G64">
         <v>19970701</v>
@@ -2421,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>19970930</v>
@@ -2433,7 +2424,7 @@
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G65">
         <v>19970701</v>
@@ -2444,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66">
         <v>19970930</v>
@@ -2456,7 +2447,7 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G66">
         <v>19970701</v>
@@ -2467,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>19970930</v>
@@ -2479,7 +2470,7 @@
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G67">
         <v>19970701</v>
@@ -2490,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68">
         <v>19970930</v>
@@ -2502,7 +2493,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G68">
         <v>19970701</v>
@@ -2513,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69">
         <v>19970930</v>
@@ -2525,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G69">
         <v>19970701</v>
@@ -2536,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70">
         <v>19970930</v>
@@ -2548,7 +2539,7 @@
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G70">
         <v>19970701</v>
@@ -2559,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71">
         <v>19970930</v>
@@ -2571,7 +2562,7 @@
         <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G71">
         <v>19970701</v>
@@ -2582,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72">
         <v>19970930</v>
@@ -2594,7 +2585,7 @@
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G72">
         <v>19970701</v>
@@ -2605,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73">
         <v>19970930</v>
@@ -2617,7 +2608,7 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G73">
         <v>19970701</v>
@@ -2628,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74">
         <v>19970930</v>
@@ -2640,7 +2631,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G74">
         <v>19970701</v>
@@ -2651,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>19970930</v>
@@ -2663,7 +2654,7 @@
         <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G75">
         <v>19970701</v>
@@ -2674,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76">
         <v>19970930</v>
@@ -2686,7 +2677,7 @@
         <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G76">
         <v>19970701</v>
@@ -2697,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77">
         <v>19970930</v>
@@ -2709,7 +2700,7 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G77">
         <v>19970701</v>
@@ -2720,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78">
         <v>19971231</v>
@@ -2732,7 +2723,7 @@
         <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G78">
         <v>19971001</v>
@@ -2743,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C79">
         <v>19971231</v>
@@ -2755,7 +2746,7 @@
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G79">
         <v>19971001</v>
@@ -2766,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80">
         <v>19971231</v>
@@ -2778,7 +2769,7 @@
         <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G80">
         <v>19971001</v>
@@ -2789,7 +2780,7 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81">
         <v>19971231</v>
@@ -2801,7 +2792,7 @@
         <v>19</v>
       </c>
       <c r="F81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G81">
         <v>19971001</v>
@@ -2812,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C82">
         <v>19971231</v>
@@ -2824,7 +2815,7 @@
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G82">
         <v>19971001</v>
@@ -2835,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C83">
         <v>19971231</v>
@@ -2847,7 +2838,7 @@
         <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G83">
         <v>19971001</v>
@@ -2858,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>19971231</v>
@@ -2870,7 +2861,7 @@
         <v>19</v>
       </c>
       <c r="F84" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G84">
         <v>19971001</v>
@@ -2881,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C85">
         <v>19971231</v>
@@ -2893,7 +2884,7 @@
         <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G85">
         <v>19971001</v>
@@ -2904,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86">
         <v>19971231</v>
@@ -2916,7 +2907,7 @@
         <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G86">
         <v>19971001</v>
@@ -2927,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C87">
         <v>19971231</v>
@@ -2939,7 +2930,7 @@
         <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G87">
         <v>19971001</v>
@@ -2950,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88">
         <v>19971231</v>
@@ -2962,7 +2953,7 @@
         <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G88">
         <v>19971001</v>
@@ -2973,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C89">
         <v>19971231</v>
@@ -2985,7 +2976,7 @@
         <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G89">
         <v>19971001</v>
@@ -2996,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90">
         <v>19971231</v>
@@ -3008,7 +2999,7 @@
         <v>19</v>
       </c>
       <c r="F90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G90">
         <v>19971001</v>
@@ -3019,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C91">
         <v>19971231</v>
@@ -3031,7 +3022,7 @@
         <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G91">
         <v>19971001</v>
@@ -3042,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92">
         <v>19971231</v>
@@ -3054,7 +3045,7 @@
         <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G92">
         <v>19971001</v>
@@ -3065,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C93">
         <v>19971231</v>
@@ -3077,7 +3068,7 @@
         <v>19</v>
       </c>
       <c r="F93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G93">
         <v>19971001</v>
@@ -3088,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94">
         <v>19971231</v>
@@ -3100,7 +3091,7 @@
         <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G94">
         <v>19971001</v>
@@ -3111,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95">
         <v>19971231</v>
@@ -3123,7 +3114,7 @@
         <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G95">
         <v>19971001</v>
@@ -3134,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C96">
         <v>19971231</v>
@@ -3146,7 +3137,7 @@
         <v>19</v>
       </c>
       <c r="F96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G96">
         <v>19971001</v>
@@ -3157,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97">
         <v>19980331</v>
@@ -3169,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G97">
         <v>19980101</v>
@@ -3180,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98">
         <v>19980331</v>
@@ -3192,7 +3183,7 @@
         <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G98">
         <v>19980101</v>
@@ -3203,7 +3194,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99">
         <v>19980630</v>
@@ -3215,7 +3206,7 @@
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G99">
         <v>19980401</v>
@@ -3226,7 +3217,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100">
         <v>19980630</v>
@@ -3238,7 +3229,7 @@
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G100">
         <v>19980401</v>
@@ -3249,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101">
         <v>19980630</v>
@@ -3261,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G101">
         <v>19980401</v>
@@ -3272,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C102">
         <v>19980630</v>
@@ -3284,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G102">
         <v>19980401</v>
@@ -3295,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C103">
         <v>19980630</v>
@@ -3307,7 +3298,7 @@
         <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G103">
         <v>19980401</v>
@@ -3318,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C104">
         <v>19980930</v>
@@ -3330,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G104">
         <v>19980701</v>
@@ -3341,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C105">
         <v>19981231</v>
@@ -3353,7 +3344,7 @@
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G105">
         <v>19981001</v>
@@ -3364,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C106">
         <v>19981231</v>
@@ -3376,7 +3367,7 @@
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G106">
         <v>19981001</v>
@@ -3387,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107">
         <v>19981231</v>
@@ -3399,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G107">
         <v>19981001</v>
@@ -3410,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C108">
         <v>19981231</v>
@@ -3422,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G108">
         <v>19981001</v>
@@ -3433,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109">
         <v>19981231</v>
@@ -3445,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G109">
         <v>19981001</v>
@@ -3456,7 +3447,7 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C110">
         <v>19990331</v>
@@ -3468,7 +3459,7 @@
         <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G110">
         <v>19990101</v>
@@ -3479,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111">
         <v>19990331</v>
@@ -3491,7 +3482,7 @@
         <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G111">
         <v>19990101</v>
@@ -3502,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C112">
         <v>19990331</v>
@@ -3514,7 +3505,7 @@
         <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G112">
         <v>19990101</v>
@@ -3525,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C113">
         <v>19990331</v>
@@ -3537,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G113">
         <v>19990101</v>
@@ -3548,7 +3539,7 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C114">
         <v>19990630</v>
@@ -3560,7 +3551,7 @@
         <v>6</v>
       </c>
       <c r="F114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G114">
         <v>19990401</v>
@@ -3571,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C115">
         <v>19990630</v>
@@ -3583,7 +3574,7 @@
         <v>6</v>
       </c>
       <c r="F115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G115">
         <v>19990401</v>
@@ -3594,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116">
         <v>19990630</v>
@@ -3606,7 +3597,7 @@
         <v>6</v>
       </c>
       <c r="F116" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G116">
         <v>19990401</v>
@@ -3617,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C117">
         <v>19990630</v>
@@ -3629,7 +3620,7 @@
         <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G117">
         <v>19990401</v>
@@ -3640,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C118">
         <v>19990630</v>
@@ -3652,7 +3643,7 @@
         <v>6</v>
       </c>
       <c r="F118" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G118">
         <v>19990401</v>
@@ -3663,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C119">
         <v>19990630</v>
@@ -3675,7 +3666,7 @@
         <v>6</v>
       </c>
       <c r="F119" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G119">
         <v>19990401</v>
@@ -3686,7 +3677,7 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C120">
         <v>19990930</v>
@@ -3698,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="F120" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G120">
         <v>19990701</v>
@@ -3709,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121">
         <v>19990930</v>
@@ -3721,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G121">
         <v>19990701</v>
@@ -3732,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C122">
         <v>19990930</v>
@@ -3744,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G122">
         <v>19990701</v>
@@ -3755,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C123">
         <v>19991231</v>
@@ -3767,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G123">
         <v>19991001</v>
@@ -3778,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C124">
         <v>20000331</v>
@@ -3790,7 +3781,7 @@
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G124">
         <v>20000101</v>
@@ -3801,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C125">
         <v>20000331</v>
@@ -3813,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G125">
         <v>20000101</v>
@@ -3824,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C126">
         <v>20000331</v>
@@ -3836,7 +3827,7 @@
         <v>7</v>
       </c>
       <c r="F126" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G126">
         <v>20000101</v>
@@ -3847,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C127">
         <v>20000331</v>
@@ -3859,7 +3850,7 @@
         <v>7</v>
       </c>
       <c r="F127" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G127">
         <v>20000101</v>
@@ -3870,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C128">
         <v>20000331</v>
@@ -3882,7 +3873,7 @@
         <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G128">
         <v>20000101</v>
@@ -3893,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C129">
         <v>20000331</v>
@@ -3905,7 +3896,7 @@
         <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G129">
         <v>20000101</v>
@@ -3916,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C130">
         <v>20000331</v>
@@ -3928,7 +3919,7 @@
         <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G130">
         <v>20000101</v>
@@ -3939,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131">
         <v>20000630</v>
@@ -3951,7 +3942,7 @@
         <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G131">
         <v>20000401</v>
@@ -3962,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C132">
         <v>20000630</v>
@@ -3974,7 +3965,7 @@
         <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G132">
         <v>20000401</v>
@@ -3985,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C133">
         <v>20000630</v>
@@ -3997,7 +3988,7 @@
         <v>6</v>
       </c>
       <c r="F133" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G133">
         <v>20000401</v>
@@ -4008,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C134">
         <v>20000630</v>
@@ -4020,7 +4011,7 @@
         <v>6</v>
       </c>
       <c r="F134" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G134">
         <v>20000401</v>
@@ -4031,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C135">
         <v>20000630</v>
@@ -4043,7 +4034,7 @@
         <v>6</v>
       </c>
       <c r="F135" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G135">
         <v>20000401</v>
@@ -4054,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C136">
         <v>20000630</v>
@@ -4066,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="F136" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G136">
         <v>20000401</v>
@@ -4077,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C137">
         <v>20000930</v>
@@ -4089,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G137">
         <v>20000701</v>
@@ -4100,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C138">
         <v>20000930</v>
@@ -4112,7 +4103,7 @@
         <v>6</v>
       </c>
       <c r="F138" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G138">
         <v>20000701</v>
@@ -4123,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C139">
         <v>20000930</v>
@@ -4135,7 +4126,7 @@
         <v>6</v>
       </c>
       <c r="F139" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G139">
         <v>20000701</v>
@@ -4146,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C140">
         <v>20000930</v>
@@ -4158,7 +4149,7 @@
         <v>6</v>
       </c>
       <c r="F140" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G140">
         <v>20000701</v>
@@ -4169,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C141">
         <v>20000930</v>
@@ -4181,7 +4172,7 @@
         <v>6</v>
       </c>
       <c r="F141" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G141">
         <v>20000701</v>
@@ -4192,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142">
         <v>20000930</v>
@@ -4204,7 +4195,7 @@
         <v>6</v>
       </c>
       <c r="F142" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G142">
         <v>20000701</v>
@@ -4215,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C143">
         <v>20001231</v>
@@ -4227,7 +4218,7 @@
         <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G143">
         <v>20001001</v>
@@ -4238,7 +4229,7 @@
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C144">
         <v>20001231</v>
@@ -4250,7 +4241,7 @@
         <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G144">
         <v>20001001</v>
@@ -4261,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C145">
         <v>20001231</v>
@@ -4273,7 +4264,7 @@
         <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G145">
         <v>20001001</v>
@@ -4284,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C146">
         <v>20001231</v>
@@ -4296,7 +4287,7 @@
         <v>9</v>
       </c>
       <c r="F146" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G146">
         <v>20001001</v>
@@ -4307,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C147">
         <v>20001231</v>
@@ -4319,7 +4310,7 @@
         <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G147">
         <v>20001001</v>
@@ -4330,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C148">
         <v>20001231</v>
@@ -4342,7 +4333,7 @@
         <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G148">
         <v>20001001</v>
@@ -4353,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C149">
         <v>20001231</v>
@@ -4365,7 +4356,7 @@
         <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G149">
         <v>20001001</v>
@@ -4376,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C150">
         <v>20001231</v>
@@ -4388,7 +4379,7 @@
         <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G150">
         <v>20001001</v>
@@ -4399,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C151">
         <v>20001231</v>
@@ -4411,7 +4402,7 @@
         <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G151">
         <v>20001001</v>
@@ -4422,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C152">
         <v>20010331</v>
@@ -4434,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G152">
         <v>20010101</v>
@@ -4445,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C153">
         <v>20010331</v>
@@ -4457,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G153">
         <v>20010101</v>
@@ -4468,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C154">
         <v>20010630</v>
@@ -4480,7 +4471,7 @@
         <v>6</v>
       </c>
       <c r="F154" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G154">
         <v>20010401</v>
@@ -4491,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C155">
         <v>20010630</v>
@@ -4503,7 +4494,7 @@
         <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G155">
         <v>20010401</v>
@@ -4514,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C156">
         <v>20010630</v>
@@ -4526,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="F156" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G156">
         <v>20010401</v>
@@ -4537,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C157">
         <v>20010630</v>
@@ -4549,7 +4540,7 @@
         <v>6</v>
       </c>
       <c r="F157" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G157">
         <v>20010401</v>
@@ -4560,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C158">
         <v>20010630</v>
@@ -4572,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="F158" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G158">
         <v>20010401</v>
@@ -4583,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C159">
         <v>20010630</v>
@@ -4595,7 +4586,7 @@
         <v>6</v>
       </c>
       <c r="F159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G159">
         <v>20010401</v>
@@ -4606,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C160">
         <v>20010930</v>
@@ -4618,7 +4609,7 @@
         <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G160">
         <v>20010701</v>
@@ -4629,7 +4620,7 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C161">
         <v>20010930</v>
@@ -4641,7 +4632,7 @@
         <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G161">
         <v>20010701</v>
@@ -4652,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C162">
         <v>20010930</v>
@@ -4664,7 +4655,7 @@
         <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G162">
         <v>20010701</v>
@@ -4675,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C163">
         <v>20010930</v>
@@ -4687,7 +4678,7 @@
         <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G163">
         <v>20010701</v>
@@ -4698,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="B164" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C164">
         <v>20010930</v>
@@ -4710,7 +4701,7 @@
         <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G164">
         <v>20010701</v>
@@ -4721,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C165">
         <v>20010930</v>
@@ -4733,7 +4724,7 @@
         <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G165">
         <v>20010701</v>
@@ -4744,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C166">
         <v>20010930</v>
@@ -4756,7 +4747,7 @@
         <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G166">
         <v>20010701</v>
@@ -4767,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C167">
         <v>20010930</v>
@@ -4779,7 +4770,7 @@
         <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G167">
         <v>20010701</v>
@@ -4790,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C168">
         <v>20010930</v>
@@ -4802,7 +4793,7 @@
         <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G168">
         <v>20010701</v>
@@ -4813,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C169">
         <v>20010930</v>
@@ -4825,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G169">
         <v>20010701</v>
@@ -4836,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C170">
         <v>20010930</v>
@@ -4848,7 +4839,7 @@
         <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G170">
         <v>20010701</v>
@@ -4859,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="B171" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C171">
         <v>20011231</v>
@@ -4871,7 +4862,7 @@
         <v>4</v>
       </c>
       <c r="F171" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G171">
         <v>20011001</v>
@@ -4882,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C172">
         <v>20011231</v>
@@ -4894,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="F172" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G172">
         <v>20011001</v>
@@ -4905,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C173">
         <v>20011231</v>
@@ -4917,7 +4908,7 @@
         <v>4</v>
       </c>
       <c r="F173" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G173">
         <v>20011001</v>
@@ -4928,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C174">
         <v>20011231</v>
@@ -4940,7 +4931,7 @@
         <v>4</v>
       </c>
       <c r="F174" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G174">
         <v>20011001</v>
@@ -4951,7 +4942,7 @@
         <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C175">
         <v>20020331</v>
@@ -4963,7 +4954,7 @@
         <v>24</v>
       </c>
       <c r="F175" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G175">
         <v>20020101</v>
@@ -4974,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C176">
         <v>20020331</v>
@@ -4986,7 +4977,7 @@
         <v>24</v>
       </c>
       <c r="F176" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G176">
         <v>20020101</v>
@@ -4997,7 +4988,7 @@
         <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C177">
         <v>20020331</v>
@@ -5009,7 +5000,7 @@
         <v>24</v>
       </c>
       <c r="F177" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G177">
         <v>20020101</v>
@@ -5020,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C178">
         <v>20020331</v>
@@ -5032,7 +5023,7 @@
         <v>24</v>
       </c>
       <c r="F178" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G178">
         <v>20020101</v>
@@ -5043,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C179">
         <v>20020331</v>
@@ -5055,7 +5046,7 @@
         <v>24</v>
       </c>
       <c r="F179" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G179">
         <v>20020101</v>
@@ -5066,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C180">
         <v>20020331</v>
@@ -5078,7 +5069,7 @@
         <v>24</v>
       </c>
       <c r="F180" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G180">
         <v>20020101</v>
@@ -5089,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C181">
         <v>20020331</v>
@@ -5101,7 +5092,7 @@
         <v>24</v>
       </c>
       <c r="F181" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G181">
         <v>20020101</v>
@@ -5112,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C182">
         <v>20020331</v>
@@ -5124,7 +5115,7 @@
         <v>24</v>
       </c>
       <c r="F182" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G182">
         <v>20020101</v>
@@ -5135,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C183">
         <v>20020331</v>
@@ -5147,7 +5138,7 @@
         <v>24</v>
       </c>
       <c r="F183" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G183">
         <v>20020101</v>
@@ -5158,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="B184" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C184">
         <v>20020331</v>
@@ -5170,7 +5161,7 @@
         <v>24</v>
       </c>
       <c r="F184" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G184">
         <v>20020101</v>
@@ -5181,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="B185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C185">
         <v>20020331</v>
@@ -5193,7 +5184,7 @@
         <v>24</v>
       </c>
       <c r="F185" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G185">
         <v>20020101</v>
@@ -5204,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C186">
         <v>20020331</v>
@@ -5216,7 +5207,7 @@
         <v>24</v>
       </c>
       <c r="F186" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G186">
         <v>20020101</v>
@@ -5227,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C187">
         <v>20020331</v>
@@ -5239,7 +5230,7 @@
         <v>24</v>
       </c>
       <c r="F187" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G187">
         <v>20020101</v>
@@ -5250,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C188">
         <v>20020331</v>
@@ -5262,7 +5253,7 @@
         <v>24</v>
       </c>
       <c r="F188" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G188">
         <v>20020101</v>
@@ -5273,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C189">
         <v>20020331</v>
@@ -5285,7 +5276,7 @@
         <v>24</v>
       </c>
       <c r="F189" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G189">
         <v>20020101</v>
@@ -5296,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C190">
         <v>20020331</v>
@@ -5308,7 +5299,7 @@
         <v>24</v>
       </c>
       <c r="F190" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G190">
         <v>20020101</v>
@@ -5319,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C191">
         <v>20020331</v>
@@ -5331,7 +5322,7 @@
         <v>24</v>
       </c>
       <c r="F191" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G191">
         <v>20020101</v>
@@ -5342,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="B192" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C192">
         <v>20020331</v>
@@ -5354,7 +5345,7 @@
         <v>24</v>
       </c>
       <c r="F192" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G192">
         <v>20020101</v>
@@ -5365,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C193">
         <v>20020331</v>
@@ -5377,7 +5368,7 @@
         <v>24</v>
       </c>
       <c r="F193" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G193">
         <v>20020101</v>
@@ -5388,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C194">
         <v>20020331</v>
@@ -5400,7 +5391,7 @@
         <v>24</v>
       </c>
       <c r="F194" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G194">
         <v>20020101</v>
@@ -5411,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C195">
         <v>20020331</v>
@@ -5423,7 +5414,7 @@
         <v>24</v>
       </c>
       <c r="F195" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G195">
         <v>20020101</v>
@@ -5434,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="B196" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C196">
         <v>20020331</v>
@@ -5446,7 +5437,7 @@
         <v>24</v>
       </c>
       <c r="F196" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G196">
         <v>20020101</v>
@@ -5457,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C197">
         <v>20020331</v>
@@ -5469,7 +5460,7 @@
         <v>24</v>
       </c>
       <c r="F197" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G197">
         <v>20020101</v>
@@ -5480,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="B198" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C198">
         <v>20020331</v>
@@ -5492,7 +5483,7 @@
         <v>24</v>
       </c>
       <c r="F198" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G198">
         <v>20020101</v>
@@ -5503,7 +5494,7 @@
         <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C199">
         <v>20020630</v>
@@ -5515,7 +5506,7 @@
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G199">
         <v>20020401</v>
@@ -5526,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C200">
         <v>20020630</v>
@@ -5538,7 +5529,7 @@
         <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G200">
         <v>20020401</v>
@@ -5549,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C201">
         <v>20020630</v>
@@ -5561,7 +5552,7 @@
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G201">
         <v>20020401</v>
@@ -5572,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C202">
         <v>20020630</v>
@@ -5584,7 +5575,7 @@
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G202">
         <v>20020401</v>
@@ -5595,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="B203" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C203">
         <v>20020630</v>
@@ -5607,7 +5598,7 @@
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G203">
         <v>20020401</v>
@@ -5618,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="B204" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C204">
         <v>20020630</v>
@@ -5630,7 +5621,7 @@
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G204">
         <v>20020401</v>
@@ -5641,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C205">
         <v>20020630</v>
@@ -5653,7 +5644,7 @@
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G205">
         <v>20020401</v>
@@ -5664,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="B206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C206">
         <v>20020630</v>
@@ -5676,7 +5667,7 @@
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G206">
         <v>20020401</v>
@@ -5687,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="B207" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C207">
         <v>20020630</v>
@@ -5699,7 +5690,7 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G207">
         <v>20020401</v>
@@ -5710,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C208">
         <v>20020630</v>
@@ -5722,7 +5713,7 @@
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G208">
         <v>20020401</v>
@@ -5733,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C209">
         <v>20020630</v>
@@ -5745,7 +5736,7 @@
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G209">
         <v>20020401</v>
@@ -5756,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="B210" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C210">
         <v>20020630</v>
@@ -5768,7 +5759,7 @@
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G210">
         <v>20020401</v>
@@ -5779,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="B211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C211">
         <v>20020630</v>
@@ -5791,7 +5782,7 @@
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G211">
         <v>20020401</v>
@@ -5802,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="B212" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C212">
         <v>20020630</v>
@@ -5814,7 +5805,7 @@
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G212">
         <v>20020401</v>
@@ -5825,7 +5816,7 @@
         <v>11</v>
       </c>
       <c r="B213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C213">
         <v>20020930</v>
@@ -5837,7 +5828,7 @@
         <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G213">
         <v>20020701</v>
@@ -5848,7 +5839,7 @@
         <v>4</v>
       </c>
       <c r="B214" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C214">
         <v>20020930</v>
@@ -5860,7 +5851,7 @@
         <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G214">
         <v>20020701</v>
@@ -5871,7 +5862,7 @@
         <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C215">
         <v>20020930</v>
@@ -5883,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G215">
         <v>20020701</v>
@@ -5894,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="B216" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C216">
         <v>20020930</v>
@@ -5906,7 +5897,7 @@
         <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G216">
         <v>20020701</v>
@@ -5917,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="B217" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C217">
         <v>20020930</v>
@@ -5929,7 +5920,7 @@
         <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G217">
         <v>20020701</v>
@@ -5940,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C218">
         <v>20020930</v>
@@ -5952,7 +5943,7 @@
         <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G218">
         <v>20020701</v>
@@ -5963,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="B219" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C219">
         <v>20020930</v>
@@ -5975,7 +5966,7 @@
         <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G219">
         <v>20020701</v>
@@ -5986,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="B220" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C220">
         <v>20020930</v>
@@ -5998,7 +5989,7 @@
         <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G220">
         <v>20020701</v>
@@ -6009,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C221">
         <v>20020930</v>
@@ -6021,7 +6012,7 @@
         <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G221">
         <v>20020701</v>
@@ -6032,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C222">
         <v>20020930</v>
@@ -6044,7 +6035,7 @@
         <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G222">
         <v>20020701</v>
@@ -6055,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C223">
         <v>20020930</v>
@@ -6067,7 +6058,7 @@
         <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G223">
         <v>20020701</v>
@@ -6078,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="B224" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C224">
         <v>20020930</v>
@@ -6090,7 +6081,7 @@
         <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G224">
         <v>20020701</v>
@@ -6101,7 +6092,7 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C225">
         <v>20021231</v>
@@ -6113,7 +6104,7 @@
         <v>19</v>
       </c>
       <c r="F225" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G225">
         <v>20021001</v>
@@ -6124,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="B226" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C226">
         <v>20021231</v>
@@ -6136,7 +6127,7 @@
         <v>19</v>
       </c>
       <c r="F226" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G226">
         <v>20021001</v>
@@ -6147,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C227">
         <v>20021231</v>
@@ -6159,7 +6150,7 @@
         <v>19</v>
       </c>
       <c r="F227" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G227">
         <v>20021001</v>
@@ -6170,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C228">
         <v>20021231</v>
@@ -6182,7 +6173,7 @@
         <v>19</v>
       </c>
       <c r="F228" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G228">
         <v>20021001</v>
@@ -6193,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="B229" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C229">
         <v>20021231</v>
@@ -6205,7 +6196,7 @@
         <v>19</v>
       </c>
       <c r="F229" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G229">
         <v>20021001</v>
@@ -6216,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C230">
         <v>20021231</v>
@@ -6228,7 +6219,7 @@
         <v>19</v>
       </c>
       <c r="F230" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G230">
         <v>20021001</v>
@@ -6239,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C231">
         <v>20021231</v>
@@ -6251,7 +6242,7 @@
         <v>19</v>
       </c>
       <c r="F231" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G231">
         <v>20021001</v>
@@ -6262,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="B232" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C232">
         <v>20021231</v>
@@ -6274,7 +6265,7 @@
         <v>19</v>
       </c>
       <c r="F232" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G232">
         <v>20021001</v>
@@ -6285,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="B233" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C233">
         <v>20021231</v>
@@ -6297,7 +6288,7 @@
         <v>19</v>
       </c>
       <c r="F233" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G233">
         <v>20021001</v>
@@ -6308,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C234">
         <v>20021231</v>
@@ -6320,7 +6311,7 @@
         <v>19</v>
       </c>
       <c r="F234" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G234">
         <v>20021001</v>
@@ -6331,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="B235" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C235">
         <v>20021231</v>
@@ -6343,7 +6334,7 @@
         <v>19</v>
       </c>
       <c r="F235" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G235">
         <v>20021001</v>
@@ -6354,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="B236" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C236">
         <v>20021231</v>
@@ -6366,7 +6357,7 @@
         <v>19</v>
       </c>
       <c r="F236" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G236">
         <v>20021001</v>
@@ -6377,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C237">
         <v>20021231</v>
@@ -6389,7 +6380,7 @@
         <v>19</v>
       </c>
       <c r="F237" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G237">
         <v>20021001</v>
@@ -6400,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C238">
         <v>20021231</v>
@@ -6412,7 +6403,7 @@
         <v>19</v>
       </c>
       <c r="F238" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G238">
         <v>20021001</v>
@@ -6423,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="B239" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C239">
         <v>20021231</v>
@@ -6435,7 +6426,7 @@
         <v>19</v>
       </c>
       <c r="F239" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G239">
         <v>20021001</v>
@@ -6446,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C240">
         <v>20021231</v>
@@ -6458,7 +6449,7 @@
         <v>19</v>
       </c>
       <c r="F240" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G240">
         <v>20021001</v>
@@ -6469,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="B241" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C241">
         <v>20021231</v>
@@ -6481,7 +6472,7 @@
         <v>19</v>
       </c>
       <c r="F241" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G241">
         <v>20021001</v>
@@ -6492,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C242">
         <v>20021231</v>
@@ -6504,7 +6495,7 @@
         <v>19</v>
       </c>
       <c r="F242" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G242">
         <v>20021001</v>
@@ -6515,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="B243" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C243">
         <v>20021231</v>
@@ -6527,7 +6518,7 @@
         <v>19</v>
       </c>
       <c r="F243" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G243">
         <v>20021001</v>
@@ -6538,7 +6529,7 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C244">
         <v>20030331</v>
@@ -6550,7 +6541,7 @@
         <v>8</v>
       </c>
       <c r="F244" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G244">
         <v>20030101</v>
@@ -6561,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C245">
         <v>20030331</v>
@@ -6573,7 +6564,7 @@
         <v>8</v>
       </c>
       <c r="F245" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G245">
         <v>20030101</v>
@@ -6584,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="B246" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C246">
         <v>20030331</v>
@@ -6596,7 +6587,7 @@
         <v>8</v>
       </c>
       <c r="F246" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G246">
         <v>20030101</v>
@@ -6607,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="B247" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C247">
         <v>20030331</v>
@@ -6619,7 +6610,7 @@
         <v>8</v>
       </c>
       <c r="F247" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G247">
         <v>20030101</v>
@@ -6630,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="B248" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C248">
         <v>20030331</v>
@@ -6642,7 +6633,7 @@
         <v>8</v>
       </c>
       <c r="F248" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G248">
         <v>20030101</v>
@@ -6653,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="B249" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C249">
         <v>20030331</v>
@@ -6665,7 +6656,7 @@
         <v>8</v>
       </c>
       <c r="F249" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G249">
         <v>20030101</v>
@@ -6676,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C250">
         <v>20030331</v>
@@ -6688,7 +6679,7 @@
         <v>8</v>
       </c>
       <c r="F250" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G250">
         <v>20030101</v>
@@ -6699,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C251">
         <v>20030331</v>
@@ -6711,7 +6702,7 @@
         <v>8</v>
       </c>
       <c r="F251" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G251">
         <v>20030101</v>
@@ -6722,7 +6713,7 @@
         <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C252">
         <v>20030630</v>
@@ -6734,7 +6725,7 @@
         <v>4</v>
       </c>
       <c r="F252" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G252">
         <v>20030401</v>
@@ -6745,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C253">
         <v>20030630</v>
@@ -6757,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="F253" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G253">
         <v>20030401</v>
@@ -6768,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="B254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C254">
         <v>20030630</v>
@@ -6780,7 +6771,7 @@
         <v>4</v>
       </c>
       <c r="F254" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G254">
         <v>20030401</v>
@@ -6791,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="B255" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C255">
         <v>20030630</v>
@@ -6803,7 +6794,7 @@
         <v>4</v>
       </c>
       <c r="F255" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G255">
         <v>20030401</v>
@@ -6814,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C256">
         <v>20030930</v>
@@ -6826,7 +6817,7 @@
         <v>9</v>
       </c>
       <c r="F256" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G256">
         <v>20030701</v>
@@ -6837,7 +6828,7 @@
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C257">
         <v>20030930</v>
@@ -6849,7 +6840,7 @@
         <v>9</v>
       </c>
       <c r="F257" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G257">
         <v>20030701</v>
@@ -6860,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="B258" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C258">
         <v>20030930</v>
@@ -6872,7 +6863,7 @@
         <v>9</v>
       </c>
       <c r="F258" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G258">
         <v>20030701</v>
@@ -6883,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="B259" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C259">
         <v>20030930</v>
@@ -6895,7 +6886,7 @@
         <v>9</v>
       </c>
       <c r="F259" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G259">
         <v>20030701</v>
@@ -6906,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="B260" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C260">
         <v>20030930</v>
@@ -6918,7 +6909,7 @@
         <v>9</v>
       </c>
       <c r="F260" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G260">
         <v>20030701</v>
@@ -6929,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C261">
         <v>20030930</v>
@@ -6941,7 +6932,7 @@
         <v>9</v>
       </c>
       <c r="F261" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G261">
         <v>20030701</v>
@@ -6952,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C262">
         <v>20030930</v>
@@ -6964,7 +6955,7 @@
         <v>9</v>
       </c>
       <c r="F262" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G262">
         <v>20030701</v>
@@ -6975,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C263">
         <v>20030930</v>
@@ -6987,7 +6978,7 @@
         <v>9</v>
       </c>
       <c r="F263" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G263">
         <v>20030701</v>
@@ -6998,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C264">
         <v>20030930</v>
@@ -7010,7 +7001,7 @@
         <v>9</v>
       </c>
       <c r="F264" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G264">
         <v>20030701</v>
@@ -7021,7 +7012,7 @@
         <v>5</v>
       </c>
       <c r="B265" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C265">
         <v>20031231</v>
@@ -7033,7 +7024,7 @@
         <v>15</v>
       </c>
       <c r="F265" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G265">
         <v>20031001</v>
@@ -7044,7 +7035,7 @@
         <v>3</v>
       </c>
       <c r="B266" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C266">
         <v>20031231</v>
@@ -7056,7 +7047,7 @@
         <v>15</v>
       </c>
       <c r="F266" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G266">
         <v>20031001</v>
@@ -7067,7 +7058,7 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C267">
         <v>20031231</v>
@@ -7079,7 +7070,7 @@
         <v>15</v>
       </c>
       <c r="F267" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G267">
         <v>20031001</v>
@@ -7090,7 +7081,7 @@
         <v>2</v>
       </c>
       <c r="B268" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C268">
         <v>20031231</v>
@@ -7102,7 +7093,7 @@
         <v>15</v>
       </c>
       <c r="F268" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G268">
         <v>20031001</v>
@@ -7113,7 +7104,7 @@
         <v>2</v>
       </c>
       <c r="B269" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C269">
         <v>20031231</v>
@@ -7125,7 +7116,7 @@
         <v>15</v>
       </c>
       <c r="F269" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G269">
         <v>20031001</v>
@@ -7136,7 +7127,7 @@
         <v>2</v>
       </c>
       <c r="B270" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C270">
         <v>20031231</v>
@@ -7148,7 +7139,7 @@
         <v>15</v>
       </c>
       <c r="F270" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G270">
         <v>20031001</v>
@@ -7159,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="B271" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C271">
         <v>20031231</v>
@@ -7171,7 +7162,7 @@
         <v>15</v>
       </c>
       <c r="F271" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G271">
         <v>20031001</v>
@@ -7182,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="B272" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C272">
         <v>20031231</v>
@@ -7194,7 +7185,7 @@
         <v>15</v>
       </c>
       <c r="F272" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G272">
         <v>20031001</v>
@@ -7205,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C273">
         <v>20031231</v>
@@ -7217,7 +7208,7 @@
         <v>15</v>
       </c>
       <c r="F273" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G273">
         <v>20031001</v>
@@ -7228,7 +7219,7 @@
         <v>1</v>
       </c>
       <c r="B274" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C274">
         <v>20031231</v>
@@ -7240,7 +7231,7 @@
         <v>15</v>
       </c>
       <c r="F274" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G274">
         <v>20031001</v>
@@ -7251,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C275">
         <v>20031231</v>
@@ -7263,7 +7254,7 @@
         <v>15</v>
       </c>
       <c r="F275" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G275">
         <v>20031001</v>
@@ -7274,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="B276" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C276">
         <v>20031231</v>
@@ -7286,7 +7277,7 @@
         <v>15</v>
       </c>
       <c r="F276" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G276">
         <v>20031001</v>
@@ -7297,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="B277" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C277">
         <v>20031231</v>
@@ -7309,7 +7300,7 @@
         <v>15</v>
       </c>
       <c r="F277" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G277">
         <v>20031001</v>
@@ -7320,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="B278" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C278">
         <v>20031231</v>
@@ -7332,7 +7323,7 @@
         <v>15</v>
       </c>
       <c r="F278" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G278">
         <v>20031001</v>
@@ -7343,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="B279" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C279">
         <v>20031231</v>
@@ -7355,7 +7346,7 @@
         <v>15</v>
       </c>
       <c r="F279" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G279">
         <v>20031001</v>
@@ -7366,7 +7357,7 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C280">
         <v>20040331</v>
@@ -7378,7 +7369,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G280">
         <v>20040101</v>
@@ -7389,7 +7380,7 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C281">
         <v>20040331</v>
@@ -7401,7 +7392,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G281">
         <v>20040101</v>
@@ -7412,7 +7403,7 @@
         <v>3</v>
       </c>
       <c r="B282" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C282">
         <v>20040331</v>
@@ -7424,7 +7415,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G282">
         <v>20040101</v>
@@ -7435,7 +7426,7 @@
         <v>2</v>
       </c>
       <c r="B283" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C283">
         <v>20040331</v>
@@ -7447,7 +7438,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G283">
         <v>20040101</v>
@@ -7458,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C284">
         <v>20040331</v>
@@ -7470,7 +7461,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G284">
         <v>20040101</v>
@@ -7481,7 +7472,7 @@
         <v>2</v>
       </c>
       <c r="B285" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C285">
         <v>20040331</v>
@@ -7493,7 +7484,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G285">
         <v>20040101</v>
@@ -7504,7 +7495,7 @@
         <v>2</v>
       </c>
       <c r="B286" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C286">
         <v>20040331</v>
@@ -7516,7 +7507,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G286">
         <v>20040101</v>
@@ -7527,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="B287" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C287">
         <v>20040331</v>
@@ -7539,7 +7530,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G287">
         <v>20040101</v>
@@ -7550,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="B288" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C288">
         <v>20040331</v>
@@ -7562,7 +7553,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G288">
         <v>20040101</v>
@@ -7573,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="B289" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C289">
         <v>20040331</v>
@@ -7585,7 +7576,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G289">
         <v>20040101</v>
@@ -7596,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="B290" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C290">
         <v>20040331</v>
@@ -7608,7 +7599,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G290">
         <v>20040101</v>
@@ -7619,7 +7610,7 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C291">
         <v>20040331</v>
@@ -7631,7 +7622,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G291">
         <v>20040101</v>
@@ -7642,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C292">
         <v>20040331</v>
@@ -7654,7 +7645,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G292">
         <v>20040101</v>
@@ -7665,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C293">
         <v>20040331</v>
@@ -7677,7 +7668,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G293">
         <v>20040101</v>
@@ -7688,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="B294" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C294">
         <v>20040331</v>
@@ -7700,7 +7691,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G294">
         <v>20040101</v>
@@ -7711,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="B295" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C295">
         <v>20040331</v>
@@ -7723,7 +7714,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G295">
         <v>20040101</v>
@@ -7734,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="B296" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C296">
         <v>20040331</v>
@@ -7746,7 +7737,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G296">
         <v>20040101</v>
@@ -7757,7 +7748,7 @@
         <v>2</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C297">
         <v>20040630</v>
@@ -7769,7 +7760,7 @@
         <v>6</v>
       </c>
       <c r="F297" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G297">
         <v>20040401</v>
@@ -7780,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="B298" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C298">
         <v>20040630</v>
@@ -7792,7 +7783,7 @@
         <v>6</v>
       </c>
       <c r="F298" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G298">
         <v>20040401</v>
@@ -7803,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="B299" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C299">
         <v>20040630</v>
@@ -7815,7 +7806,7 @@
         <v>6</v>
       </c>
       <c r="F299" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G299">
         <v>20040401</v>
@@ -7826,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="B300" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C300">
         <v>20040630</v>
@@ -7838,7 +7829,7 @@
         <v>6</v>
       </c>
       <c r="F300" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G300">
         <v>20040401</v>
@@ -7849,7 +7840,7 @@
         <v>1</v>
       </c>
       <c r="B301" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C301">
         <v>20040630</v>
@@ -7861,7 +7852,7 @@
         <v>6</v>
       </c>
       <c r="F301" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G301">
         <v>20040401</v>
@@ -7872,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="B302" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C302">
         <v>20040630</v>
@@ -7884,7 +7875,7 @@
         <v>6</v>
       </c>
       <c r="F302" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G302">
         <v>20040401</v>
@@ -7895,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="B303" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C303">
         <v>20040930</v>
@@ -7907,7 +7898,7 @@
         <v>3</v>
       </c>
       <c r="F303" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G303">
         <v>20040701</v>
@@ -7918,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="B304" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C304">
         <v>20040930</v>
@@ -7930,7 +7921,7 @@
         <v>3</v>
       </c>
       <c r="F304" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G304">
         <v>20040701</v>
@@ -7941,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C305">
         <v>20040930</v>
@@ -7953,7 +7944,7 @@
         <v>3</v>
       </c>
       <c r="F305" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G305">
         <v>20040701</v>
@@ -7964,7 +7955,7 @@
         <v>4</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C306">
         <v>20041231</v>
@@ -7976,7 +7967,7 @@
         <v>11</v>
       </c>
       <c r="F306" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G306">
         <v>20041001</v>
@@ -7987,7 +7978,7 @@
         <v>2</v>
       </c>
       <c r="B307" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C307">
         <v>20041231</v>
@@ -7999,7 +7990,7 @@
         <v>11</v>
       </c>
       <c r="F307" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G307">
         <v>20041001</v>
@@ -8010,7 +8001,7 @@
         <v>2</v>
       </c>
       <c r="B308" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C308">
         <v>20041231</v>
@@ -8022,7 +8013,7 @@
         <v>11</v>
       </c>
       <c r="F308" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G308">
         <v>20041001</v>
@@ -8033,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="B309" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C309">
         <v>20041231</v>
@@ -8045,7 +8036,7 @@
         <v>11</v>
       </c>
       <c r="F309" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G309">
         <v>20041001</v>
@@ -8056,7 +8047,7 @@
         <v>2</v>
       </c>
       <c r="B310" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C310">
         <v>20041231</v>
@@ -8068,7 +8059,7 @@
         <v>11</v>
       </c>
       <c r="F310" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G310">
         <v>20041001</v>
@@ -8079,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="B311" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C311">
         <v>20041231</v>
@@ -8091,7 +8082,7 @@
         <v>11</v>
       </c>
       <c r="F311" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G311">
         <v>20041001</v>
@@ -8102,7 +8093,7 @@
         <v>1</v>
       </c>
       <c r="B312" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C312">
         <v>20041231</v>
@@ -8114,7 +8105,7 @@
         <v>11</v>
       </c>
       <c r="F312" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G312">
         <v>20041001</v>
@@ -8125,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="B313" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C313">
         <v>20041231</v>
@@ -8137,7 +8128,7 @@
         <v>11</v>
       </c>
       <c r="F313" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G313">
         <v>20041001</v>
@@ -8148,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="B314" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C314">
         <v>20041231</v>
@@ -8160,7 +8151,7 @@
         <v>11</v>
       </c>
       <c r="F314" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G314">
         <v>20041001</v>
@@ -8171,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="B315" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C315">
         <v>20041231</v>
@@ -8183,7 +8174,7 @@
         <v>11</v>
       </c>
       <c r="F315" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G315">
         <v>20041001</v>
@@ -8194,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="B316" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C316">
         <v>20041231</v>
@@ -8206,7 +8197,7 @@
         <v>11</v>
       </c>
       <c r="F316" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G316">
         <v>20041001</v>
@@ -8217,7 +8208,7 @@
         <v>4</v>
       </c>
       <c r="B317" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C317">
         <v>20050331</v>
@@ -8229,7 +8220,7 @@
         <v>9</v>
       </c>
       <c r="F317" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G317">
         <v>20050101</v>
@@ -8240,7 +8231,7 @@
         <v>1</v>
       </c>
       <c r="B318" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C318">
         <v>20050331</v>
@@ -8252,7 +8243,7 @@
         <v>9</v>
       </c>
       <c r="F318" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G318">
         <v>20050101</v>
@@ -8263,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="B319" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C319">
         <v>20050331</v>
@@ -8275,7 +8266,7 @@
         <v>9</v>
       </c>
       <c r="F319" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G319">
         <v>20050101</v>
@@ -8286,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C320">
         <v>20050331</v>
@@ -8298,7 +8289,7 @@
         <v>9</v>
       </c>
       <c r="F320" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G320">
         <v>20050101</v>
@@ -8309,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="B321" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C321">
         <v>20050331</v>
@@ -8321,7 +8312,7 @@
         <v>9</v>
       </c>
       <c r="F321" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G321">
         <v>20050101</v>
@@ -8332,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="B322" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C322">
         <v>20050331</v>
@@ -8344,7 +8335,7 @@
         <v>9</v>
       </c>
       <c r="F322" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G322">
         <v>20050101</v>
@@ -8355,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C323">
         <v>20050331</v>
@@ -8367,7 +8358,7 @@
         <v>9</v>
       </c>
       <c r="F323" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G323">
         <v>20050101</v>
@@ -8378,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="B324" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C324">
         <v>20050331</v>
@@ -8390,7 +8381,7 @@
         <v>9</v>
       </c>
       <c r="F324" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G324">
         <v>20050101</v>
@@ -8401,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="B325" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C325">
         <v>20050331</v>
@@ -8413,7 +8404,7 @@
         <v>9</v>
       </c>
       <c r="F325" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G325">
         <v>20050101</v>
@@ -8424,7 +8415,7 @@
         <v>3</v>
       </c>
       <c r="B326" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C326">
         <v>20050930</v>
@@ -8436,7 +8427,7 @@
         <v>5</v>
       </c>
       <c r="F326" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G326">
         <v>20050701</v>
@@ -8447,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="B327" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C327">
         <v>20050930</v>
@@ -8459,7 +8450,7 @@
         <v>5</v>
       </c>
       <c r="F327" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G327">
         <v>20050701</v>
@@ -8470,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="B328" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C328">
         <v>20050930</v>
@@ -8482,7 +8473,7 @@
         <v>5</v>
       </c>
       <c r="F328" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G328">
         <v>20050701</v>
@@ -8493,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C329">
         <v>20050930</v>
@@ -8505,7 +8496,7 @@
         <v>5</v>
       </c>
       <c r="F329" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G329">
         <v>20050701</v>
@@ -8516,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="B330" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C330">
         <v>20050930</v>
@@ -8528,7 +8519,7 @@
         <v>5</v>
       </c>
       <c r="F330" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G330">
         <v>20050701</v>
@@ -8539,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C331">
         <v>20051231</v>
@@ -8551,7 +8542,7 @@
         <v>6</v>
       </c>
       <c r="F331" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G331">
         <v>20051001</v>
@@ -8562,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="B332" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C332">
         <v>20051231</v>
@@ -8574,7 +8565,7 @@
         <v>6</v>
       </c>
       <c r="F332" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G332">
         <v>20051001</v>
@@ -8585,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="B333" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C333">
         <v>20051231</v>
@@ -8597,7 +8588,7 @@
         <v>6</v>
       </c>
       <c r="F333" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G333">
         <v>20051001</v>
@@ -8608,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="B334" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C334">
         <v>20051231</v>
@@ -8620,7 +8611,7 @@
         <v>6</v>
       </c>
       <c r="F334" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G334">
         <v>20051001</v>
@@ -8631,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="B335" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C335">
         <v>20051231</v>
@@ -8643,7 +8634,7 @@
         <v>6</v>
       </c>
       <c r="F335" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G335">
         <v>20051001</v>
@@ -8654,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="B336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C336">
         <v>20051231</v>
@@ -8666,7 +8657,7 @@
         <v>6</v>
       </c>
       <c r="F336" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G336">
         <v>20051001</v>
@@ -8677,7 +8668,7 @@
         <v>3</v>
       </c>
       <c r="B337" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C337">
         <v>20060331</v>
@@ -8689,7 +8680,7 @@
         <v>8</v>
       </c>
       <c r="F337" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G337">
         <v>20060101</v>
@@ -8700,7 +8691,7 @@
         <v>2</v>
       </c>
       <c r="B338" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C338">
         <v>20060331</v>
@@ -8712,7 +8703,7 @@
         <v>8</v>
       </c>
       <c r="F338" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G338">
         <v>20060101</v>
@@ -8723,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="B339" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C339">
         <v>20060331</v>
@@ -8735,7 +8726,7 @@
         <v>8</v>
       </c>
       <c r="F339" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G339">
         <v>20060101</v>
@@ -8746,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="B340" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C340">
         <v>20060331</v>
@@ -8758,7 +8749,7 @@
         <v>8</v>
       </c>
       <c r="F340" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G340">
         <v>20060101</v>
@@ -8769,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="B341" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C341">
         <v>20060331</v>
@@ -8781,7 +8772,7 @@
         <v>8</v>
       </c>
       <c r="F341" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G341">
         <v>20060101</v>
@@ -8792,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C342">
         <v>20060331</v>
@@ -8804,7 +8795,7 @@
         <v>8</v>
       </c>
       <c r="F342" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G342">
         <v>20060101</v>
@@ -8815,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="B343" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C343">
         <v>20060331</v>
@@ -8827,7 +8818,7 @@
         <v>8</v>
       </c>
       <c r="F343" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G343">
         <v>20060101</v>
@@ -8838,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="B344" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C344">
         <v>20060331</v>
@@ -8850,7 +8841,7 @@
         <v>8</v>
       </c>
       <c r="F344" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G344">
         <v>20060101</v>
@@ -8861,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="B345" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C345">
         <v>20060630</v>
@@ -8873,7 +8864,7 @@
         <v>4</v>
       </c>
       <c r="F345" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G345">
         <v>20060401</v>
@@ -8884,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="B346" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C346">
         <v>20060630</v>
@@ -8896,7 +8887,7 @@
         <v>4</v>
       </c>
       <c r="F346" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G346">
         <v>20060401</v>
@@ -8907,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="B347" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C347">
         <v>20060630</v>
@@ -8919,7 +8910,7 @@
         <v>4</v>
       </c>
       <c r="F347" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G347">
         <v>20060401</v>
@@ -8930,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="B348" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C348">
         <v>20060630</v>
@@ -8942,7 +8933,7 @@
         <v>4</v>
       </c>
       <c r="F348" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G348">
         <v>20060401</v>
@@ -8953,7 +8944,7 @@
         <v>2</v>
       </c>
       <c r="B349" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C349">
         <v>20060930</v>
@@ -8965,7 +8956,7 @@
         <v>8</v>
       </c>
       <c r="F349" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G349">
         <v>20060701</v>
@@ -8976,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="B350" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C350">
         <v>20060930</v>
@@ -8988,7 +8979,7 @@
         <v>8</v>
       </c>
       <c r="F350" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G350">
         <v>20060701</v>
@@ -8999,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="B351" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C351">
         <v>20060930</v>
@@ -9011,7 +9002,7 @@
         <v>8</v>
       </c>
       <c r="F351" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G351">
         <v>20060701</v>
@@ -9022,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="B352" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C352">
         <v>20060930</v>
@@ -9034,7 +9025,7 @@
         <v>8</v>
       </c>
       <c r="F352" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G352">
         <v>20060701</v>
@@ -9045,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="B353" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C353">
         <v>20060930</v>
@@ -9057,7 +9048,7 @@
         <v>8</v>
       </c>
       <c r="F353" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G353">
         <v>20060701</v>
@@ -9068,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="B354" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C354">
         <v>20060930</v>
@@ -9080,7 +9071,7 @@
         <v>8</v>
       </c>
       <c r="F354" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G354">
         <v>20060701</v>
@@ -9091,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C355">
         <v>20060930</v>
@@ -9103,7 +9094,7 @@
         <v>8</v>
       </c>
       <c r="F355" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G355">
         <v>20060701</v>
@@ -9114,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="B356" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C356">
         <v>20060930</v>
@@ -9126,7 +9117,7 @@
         <v>8</v>
       </c>
       <c r="F356" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G356">
         <v>20060701</v>
@@ -9137,7 +9128,7 @@
         <v>3</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C357">
         <v>20061231</v>
@@ -9149,7 +9140,7 @@
         <v>3</v>
       </c>
       <c r="F357" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G357">
         <v>20061001</v>
@@ -9160,7 +9151,7 @@
         <v>2</v>
       </c>
       <c r="B358" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C358">
         <v>20061231</v>
@@ -9172,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="F358" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G358">
         <v>20061001</v>
@@ -9183,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="B359" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C359">
         <v>20061231</v>
@@ -9195,7 +9186,7 @@
         <v>3</v>
       </c>
       <c r="F359" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G359">
         <v>20061001</v>
@@ -9206,7 +9197,7 @@
         <v>3</v>
       </c>
       <c r="B360" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C360">
         <v>20070331</v>
@@ -9218,7 +9209,7 @@
         <v>13</v>
       </c>
       <c r="F360" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G360">
         <v>20070101</v>
@@ -9229,7 +9220,7 @@
         <v>2</v>
       </c>
       <c r="B361" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C361">
         <v>20070331</v>
@@ -9241,7 +9232,7 @@
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G361">
         <v>20070101</v>
@@ -9252,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="B362" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C362">
         <v>20070331</v>
@@ -9264,7 +9255,7 @@
         <v>13</v>
       </c>
       <c r="F362" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G362">
         <v>20070101</v>
@@ -9275,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="B363" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C363">
         <v>20070331</v>
@@ -9287,7 +9278,7 @@
         <v>13</v>
       </c>
       <c r="F363" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G363">
         <v>20070101</v>
@@ -9298,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="B364" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C364">
         <v>20070331</v>
@@ -9310,7 +9301,7 @@
         <v>13</v>
       </c>
       <c r="F364" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G364">
         <v>20070101</v>
@@ -9321,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="B365" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C365">
         <v>20070331</v>
@@ -9333,7 +9324,7 @@
         <v>13</v>
       </c>
       <c r="F365" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G365">
         <v>20070101</v>
@@ -9344,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="B366" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C366">
         <v>20070331</v>
@@ -9356,7 +9347,7 @@
         <v>13</v>
       </c>
       <c r="F366" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G366">
         <v>20070101</v>
@@ -9367,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="B367" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C367">
         <v>20070331</v>
@@ -9379,7 +9370,7 @@
         <v>13</v>
       </c>
       <c r="F367" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G367">
         <v>20070101</v>
@@ -9390,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="B368" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C368">
         <v>20070331</v>
@@ -9402,7 +9393,7 @@
         <v>13</v>
       </c>
       <c r="F368" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G368">
         <v>20070101</v>
@@ -9413,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="B369" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C369">
         <v>20070331</v>
@@ -9425,7 +9416,7 @@
         <v>13</v>
       </c>
       <c r="F369" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G369">
         <v>20070101</v>
@@ -9436,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="B370" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C370">
         <v>20070331</v>
@@ -9448,7 +9439,7 @@
         <v>13</v>
       </c>
       <c r="F370" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G370">
         <v>20070101</v>
@@ -9459,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="B371" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C371">
         <v>20070331</v>
@@ -9471,7 +9462,7 @@
         <v>13</v>
       </c>
       <c r="F371" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G371">
         <v>20070101</v>
@@ -9482,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="B372" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C372">
         <v>20070331</v>
@@ -9494,7 +9485,7 @@
         <v>13</v>
       </c>
       <c r="F372" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G372">
         <v>20070101</v>
@@ -9505,7 +9496,7 @@
         <v>3</v>
       </c>
       <c r="B373" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C373">
         <v>20070630</v>
@@ -9517,7 +9508,7 @@
         <v>8</v>
       </c>
       <c r="F373" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G373">
         <v>20070401</v>
@@ -9528,7 +9519,7 @@
         <v>3</v>
       </c>
       <c r="B374" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C374">
         <v>20070630</v>
@@ -9540,7 +9531,7 @@
         <v>8</v>
       </c>
       <c r="F374" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G374">
         <v>20070401</v>
@@ -9551,7 +9542,7 @@
         <v>2</v>
       </c>
       <c r="B375" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C375">
         <v>20070630</v>
@@ -9563,7 +9554,7 @@
         <v>8</v>
       </c>
       <c r="F375" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G375">
         <v>20070401</v>
@@ -9574,7 +9565,7 @@
         <v>2</v>
       </c>
       <c r="B376" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C376">
         <v>20070630</v>
@@ -9586,7 +9577,7 @@
         <v>8</v>
       </c>
       <c r="F376" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G376">
         <v>20070401</v>
@@ -9597,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="B377" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C377">
         <v>20070630</v>
@@ -9609,7 +9600,7 @@
         <v>8</v>
       </c>
       <c r="F377" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G377">
         <v>20070401</v>
@@ -9620,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="B378" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C378">
         <v>20070630</v>
@@ -9632,7 +9623,7 @@
         <v>8</v>
       </c>
       <c r="F378" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G378">
         <v>20070401</v>
@@ -9643,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="B379" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C379">
         <v>20070630</v>
@@ -9655,7 +9646,7 @@
         <v>8</v>
       </c>
       <c r="F379" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G379">
         <v>20070401</v>
@@ -9666,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="B380" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C380">
         <v>20070630</v>
@@ -9678,7 +9669,7 @@
         <v>8</v>
       </c>
       <c r="F380" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G380">
         <v>20070401</v>
@@ -9689,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="B381" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C381">
         <v>20070930</v>
@@ -9701,7 +9692,7 @@
         <v>6</v>
       </c>
       <c r="F381" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G381">
         <v>20070701</v>
@@ -9712,7 +9703,7 @@
         <v>2</v>
       </c>
       <c r="B382" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C382">
         <v>20070930</v>
@@ -9724,7 +9715,7 @@
         <v>6</v>
       </c>
       <c r="F382" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G382">
         <v>20070701</v>
@@ -9735,7 +9726,7 @@
         <v>1</v>
       </c>
       <c r="B383" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C383">
         <v>20070930</v>
@@ -9747,7 +9738,7 @@
         <v>6</v>
       </c>
       <c r="F383" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G383">
         <v>20070701</v>
@@ -9758,7 +9749,7 @@
         <v>1</v>
       </c>
       <c r="B384" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C384">
         <v>20070930</v>
@@ -9770,7 +9761,7 @@
         <v>6</v>
       </c>
       <c r="F384" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G384">
         <v>20070701</v>
@@ -9781,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="B385" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C385">
         <v>20070930</v>
@@ -9793,7 +9784,7 @@
         <v>6</v>
       </c>
       <c r="F385" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G385">
         <v>20070701</v>
@@ -9804,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="B386" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C386">
         <v>20070930</v>
@@ -9816,7 +9807,7 @@
         <v>6</v>
       </c>
       <c r="F386" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G386">
         <v>20070701</v>
@@ -9827,7 +9818,7 @@
         <v>3</v>
       </c>
       <c r="B387" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C387">
         <v>20071231</v>
@@ -9839,7 +9830,7 @@
         <v>4</v>
       </c>
       <c r="F387" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G387">
         <v>20071001</v>
@@ -9850,7 +9841,7 @@
         <v>2</v>
       </c>
       <c r="B388" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C388">
         <v>20071231</v>
@@ -9862,7 +9853,7 @@
         <v>4</v>
       </c>
       <c r="F388" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G388">
         <v>20071001</v>
@@ -9873,7 +9864,7 @@
         <v>1</v>
       </c>
       <c r="B389" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C389">
         <v>20071231</v>
@@ -9885,7 +9876,7 @@
         <v>4</v>
       </c>
       <c r="F389" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G389">
         <v>20071001</v>
@@ -9896,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="B390" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C390">
         <v>20071231</v>
@@ -9908,7 +9899,7 @@
         <v>4</v>
       </c>
       <c r="F390" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G390">
         <v>20071001</v>
@@ -9919,7 +9910,7 @@
         <v>5</v>
       </c>
       <c r="B391" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C391">
         <v>20080331</v>
@@ -9931,7 +9922,7 @@
         <v>15</v>
       </c>
       <c r="F391" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G391">
         <v>20080101</v>
@@ -9942,7 +9933,7 @@
         <v>3</v>
       </c>
       <c r="B392" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C392">
         <v>20080331</v>
@@ -9954,7 +9945,7 @@
         <v>15</v>
       </c>
       <c r="F392" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G392">
         <v>20080101</v>
@@ -9965,7 +9956,7 @@
         <v>3</v>
       </c>
       <c r="B393" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C393">
         <v>20080331</v>
@@ -9977,7 +9968,7 @@
         <v>15</v>
       </c>
       <c r="F393" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G393">
         <v>20080101</v>
@@ -9988,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="B394" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C394">
         <v>20080331</v>
@@ -10000,7 +9991,7 @@
         <v>15</v>
       </c>
       <c r="F394" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G394">
         <v>20080101</v>
@@ -10011,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="B395" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C395">
         <v>20080331</v>
@@ -10023,7 +10014,7 @@
         <v>15</v>
       </c>
       <c r="F395" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G395">
         <v>20080101</v>
@@ -10034,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="B396" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C396">
         <v>20080331</v>
@@ -10046,7 +10037,7 @@
         <v>15</v>
       </c>
       <c r="F396" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G396">
         <v>20080101</v>
@@ -10057,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="B397" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C397">
         <v>20080331</v>
@@ -10069,7 +10060,7 @@
         <v>15</v>
       </c>
       <c r="F397" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G397">
         <v>20080101</v>
@@ -10080,7 +10071,7 @@
         <v>1</v>
       </c>
       <c r="B398" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C398">
         <v>20080331</v>
@@ -10092,7 +10083,7 @@
         <v>15</v>
       </c>
       <c r="F398" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G398">
         <v>20080101</v>
@@ -10103,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="B399" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C399">
         <v>20080331</v>
@@ -10115,7 +10106,7 @@
         <v>15</v>
       </c>
       <c r="F399" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G399">
         <v>20080101</v>
@@ -10126,7 +10117,7 @@
         <v>1</v>
       </c>
       <c r="B400" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C400">
         <v>20080331</v>
@@ -10138,7 +10129,7 @@
         <v>15</v>
       </c>
       <c r="F400" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G400">
         <v>20080101</v>
@@ -10149,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="B401" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C401">
         <v>20080331</v>
@@ -10161,7 +10152,7 @@
         <v>15</v>
       </c>
       <c r="F401" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G401">
         <v>20080101</v>
@@ -10172,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="B402" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C402">
         <v>20080331</v>
@@ -10184,7 +10175,7 @@
         <v>15</v>
       </c>
       <c r="F402" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G402">
         <v>20080101</v>
@@ -10195,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="B403" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C403">
         <v>20080331</v>
@@ -10207,7 +10198,7 @@
         <v>15</v>
       </c>
       <c r="F403" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G403">
         <v>20080101</v>
@@ -10218,7 +10209,7 @@
         <v>1</v>
       </c>
       <c r="B404" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C404">
         <v>20080331</v>
@@ -10230,7 +10221,7 @@
         <v>15</v>
       </c>
       <c r="F404" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G404">
         <v>20080101</v>
@@ -10241,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="B405" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C405">
         <v>20080331</v>
@@ -10253,7 +10244,7 @@
         <v>15</v>
       </c>
       <c r="F405" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G405">
         <v>20080101</v>
@@ -10264,7 +10255,7 @@
         <v>2</v>
       </c>
       <c r="B406" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C406">
         <v>20080630</v>
@@ -10276,7 +10267,7 @@
         <v>11</v>
       </c>
       <c r="F406" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G406">
         <v>20080401</v>
@@ -10287,7 +10278,7 @@
         <v>2</v>
       </c>
       <c r="B407" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C407">
         <v>20080630</v>
@@ -10299,7 +10290,7 @@
         <v>11</v>
       </c>
       <c r="F407" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G407">
         <v>20080401</v>
@@ -10310,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="B408" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C408">
         <v>20080630</v>
@@ -10322,7 +10313,7 @@
         <v>11</v>
       </c>
       <c r="F408" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G408">
         <v>20080401</v>
@@ -10333,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="B409" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C409">
         <v>20080630</v>
@@ -10345,7 +10336,7 @@
         <v>11</v>
       </c>
       <c r="F409" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G409">
         <v>20080401</v>
@@ -10356,7 +10347,7 @@
         <v>1</v>
       </c>
       <c r="B410" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C410">
         <v>20080630</v>
@@ -10368,7 +10359,7 @@
         <v>11</v>
       </c>
       <c r="F410" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G410">
         <v>20080401</v>
@@ -10379,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="B411" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C411">
         <v>20080630</v>
@@ -10391,7 +10382,7 @@
         <v>11</v>
       </c>
       <c r="F411" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G411">
         <v>20080401</v>
@@ -10402,7 +10393,7 @@
         <v>1</v>
       </c>
       <c r="B412" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C412">
         <v>20080630</v>
@@ -10414,7 +10405,7 @@
         <v>11</v>
       </c>
       <c r="F412" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G412">
         <v>20080401</v>
@@ -10425,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="B413" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C413">
         <v>20080630</v>
@@ -10437,7 +10428,7 @@
         <v>11</v>
       </c>
       <c r="F413" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G413">
         <v>20080401</v>
@@ -10448,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="B414" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C414">
         <v>20080630</v>
@@ -10460,7 +10451,7 @@
         <v>11</v>
       </c>
       <c r="F414" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G414">
         <v>20080401</v>
@@ -10471,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="B415" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C415">
         <v>20080630</v>
@@ -10483,7 +10474,7 @@
         <v>11</v>
       </c>
       <c r="F415" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G415">
         <v>20080401</v>
@@ -10494,7 +10485,7 @@
         <v>1</v>
       </c>
       <c r="B416" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C416">
         <v>20080630</v>
@@ -10506,7 +10497,7 @@
         <v>11</v>
       </c>
       <c r="F416" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G416">
         <v>20080401</v>
@@ -10517,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="B417" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C417">
         <v>20081231</v>
@@ -10529,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="F417" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G417">
         <v>20081001</v>
@@ -10540,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="B418" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C418">
         <v>20090331</v>
@@ -10552,7 +10543,7 @@
         <v>7</v>
       </c>
       <c r="F418" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G418">
         <v>20090101</v>
@@ -10563,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="B419" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C419">
         <v>20090331</v>
@@ -10575,7 +10566,7 @@
         <v>7</v>
       </c>
       <c r="F419" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G419">
         <v>20090101</v>
@@ -10586,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="B420" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C420">
         <v>20090331</v>
@@ -10598,7 +10589,7 @@
         <v>7</v>
       </c>
       <c r="F420" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G420">
         <v>20090101</v>
@@ -10609,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="B421" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C421">
         <v>20090331</v>
@@ -10621,7 +10612,7 @@
         <v>7</v>
       </c>
       <c r="F421" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G421">
         <v>20090101</v>
@@ -10632,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="B422" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C422">
         <v>20090331</v>
@@ -10644,7 +10635,7 @@
         <v>7</v>
       </c>
       <c r="F422" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G422">
         <v>20090101</v>
@@ -10655,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="B423" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C423">
         <v>20090331</v>
@@ -10667,7 +10658,7 @@
         <v>7</v>
       </c>
       <c r="F423" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G423">
         <v>20090101</v>
@@ -10678,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="B424" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C424">
         <v>20090331</v>
@@ -10690,7 +10681,7 @@
         <v>7</v>
       </c>
       <c r="F424" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G424">
         <v>20090101</v>
@@ -10701,7 +10692,7 @@
         <v>2</v>
       </c>
       <c r="B425" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C425">
         <v>20090630</v>
@@ -10713,7 +10704,7 @@
         <v>5</v>
       </c>
       <c r="F425" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G425">
         <v>20090401</v>
@@ -10724,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="B426" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C426">
         <v>20090630</v>
@@ -10736,7 +10727,7 @@
         <v>5</v>
       </c>
       <c r="F426" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G426">
         <v>20090401</v>
@@ -10747,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="B427" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C427">
         <v>20090630</v>
@@ -10759,7 +10750,7 @@
         <v>5</v>
       </c>
       <c r="F427" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G427">
         <v>20090401</v>
@@ -10770,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="B428" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C428">
         <v>20090630</v>
@@ -10782,7 +10773,7 @@
         <v>5</v>
       </c>
       <c r="F428" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G428">
         <v>20090401</v>
@@ -10793,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="B429" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C429">
         <v>20090630</v>
@@ -10805,7 +10796,7 @@
         <v>5</v>
       </c>
       <c r="F429" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G429">
         <v>20090401</v>
@@ -10816,7 +10807,7 @@
         <v>2</v>
       </c>
       <c r="B430" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C430">
         <v>20090930</v>
@@ -10828,7 +10819,7 @@
         <v>7</v>
       </c>
       <c r="F430" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G430">
         <v>20090701</v>
@@ -10839,7 +10830,7 @@
         <v>2</v>
       </c>
       <c r="B431" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C431">
         <v>20090930</v>
@@ -10851,7 +10842,7 @@
         <v>7</v>
       </c>
       <c r="F431" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G431">
         <v>20090701</v>
@@ -10862,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="B432" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C432">
         <v>20090930</v>
@@ -10874,7 +10865,7 @@
         <v>7</v>
       </c>
       <c r="F432" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G432">
         <v>20090701</v>
@@ -10885,7 +10876,7 @@
         <v>1</v>
       </c>
       <c r="B433" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C433">
         <v>20090930</v>
@@ -10897,7 +10888,7 @@
         <v>7</v>
       </c>
       <c r="F433" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G433">
         <v>20090701</v>
@@ -10908,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="B434" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C434">
         <v>20090930</v>
@@ -10920,7 +10911,7 @@
         <v>7</v>
       </c>
       <c r="F434" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G434">
         <v>20090701</v>
@@ -10931,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="B435" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C435">
         <v>20090930</v>
@@ -10943,7 +10934,7 @@
         <v>7</v>
       </c>
       <c r="F435" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G435">
         <v>20090701</v>
@@ -10954,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="B436" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C436">
         <v>20090930</v>
@@ -10966,7 +10957,7 @@
         <v>7</v>
       </c>
       <c r="F436" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G436">
         <v>20090701</v>
@@ -10977,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="B437" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C437">
         <v>20091231</v>
@@ -10989,7 +10980,7 @@
         <v>3</v>
       </c>
       <c r="F437" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G437">
         <v>20091001</v>
@@ -11000,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="B438" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C438">
         <v>20091231</v>
@@ -11012,7 +11003,7 @@
         <v>3</v>
       </c>
       <c r="F438" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G438">
         <v>20091001</v>
@@ -11023,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="B439" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C439">
         <v>20091231</v>
@@ -11035,7 +11026,7 @@
         <v>3</v>
       </c>
       <c r="F439" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G439">
         <v>20091001</v>
@@ -11046,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="B440" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C440">
         <v>20100331</v>
@@ -11058,7 +11049,7 @@
         <v>3</v>
       </c>
       <c r="F440" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G440">
         <v>20100101</v>
@@ -11069,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="B441" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C441">
         <v>20100331</v>
@@ -11081,7 +11072,7 @@
         <v>3</v>
       </c>
       <c r="F441" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G441">
         <v>20100101</v>
@@ -11092,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="B442" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C442">
         <v>20100331</v>
@@ -11104,7 +11095,7 @@
         <v>3</v>
       </c>
       <c r="F442" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G442">
         <v>20100101</v>
@@ -11115,7 +11106,7 @@
         <v>3</v>
       </c>
       <c r="B443" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C443">
         <v>20100930</v>
@@ -11127,7 +11118,7 @@
         <v>1</v>
       </c>
       <c r="F443" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G443">
         <v>20100701</v>
@@ -11138,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="B444" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C444">
         <v>20110331</v>
@@ -11150,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="F444" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G444">
         <v>20110101</v>
@@ -11161,7 +11152,7 @@
         <v>2</v>
       </c>
       <c r="B445" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C445">
         <v>20110630</v>
@@ -11173,7 +11164,7 @@
         <v>5</v>
       </c>
       <c r="F445" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G445">
         <v>20110401</v>
@@ -11184,7 +11175,7 @@
         <v>2</v>
       </c>
       <c r="B446" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C446">
         <v>20110630</v>
@@ -11196,7 +11187,7 @@
         <v>5</v>
       </c>
       <c r="F446" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G446">
         <v>20110401</v>
@@ -11207,7 +11198,7 @@
         <v>2</v>
       </c>
       <c r="B447" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C447">
         <v>20110630</v>
@@ -11219,7 +11210,7 @@
         <v>5</v>
       </c>
       <c r="F447" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G447">
         <v>20110401</v>
@@ -11230,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="B448" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C448">
         <v>20110630</v>
@@ -11242,7 +11233,7 @@
         <v>5</v>
       </c>
       <c r="F448" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G448">
         <v>20110401</v>
@@ -11253,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="B449" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C449">
         <v>20110630</v>
@@ -11265,7 +11256,7 @@
         <v>5</v>
       </c>
       <c r="F449" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G449">
         <v>20110401</v>
@@ -11276,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="B450" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C450">
         <v>20111231</v>
@@ -11288,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="F450" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G450">
         <v>20111001</v>
@@ -11299,7 +11290,7 @@
         <v>1</v>
       </c>
       <c r="B451" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C451">
         <v>20120331</v>
@@ -11311,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="F451" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G451">
         <v>20120101</v>
@@ -11322,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="B452" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C452">
         <v>20120331</v>
@@ -11334,7 +11325,7 @@
         <v>2</v>
       </c>
       <c r="F452" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G452">
         <v>20120101</v>
@@ -11345,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="B453" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C453">
         <v>20120630</v>
@@ -11357,7 +11348,7 @@
         <v>2</v>
       </c>
       <c r="F453" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G453">
         <v>20120401</v>
@@ -11368,7 +11359,7 @@
         <v>1</v>
       </c>
       <c r="B454" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C454">
         <v>20120630</v>
@@ -11380,7 +11371,7 @@
         <v>2</v>
       </c>
       <c r="F454" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G454">
         <v>20120401</v>
@@ -11391,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="B455" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C455">
         <v>20120930</v>
@@ -11403,7 +11394,7 @@
         <v>3</v>
       </c>
       <c r="F455" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G455">
         <v>20120701</v>
@@ -11414,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="B456" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C456">
         <v>20120930</v>
@@ -11426,7 +11417,7 @@
         <v>3</v>
       </c>
       <c r="F456" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G456">
         <v>20120701</v>
@@ -11437,7 +11428,7 @@
         <v>1</v>
       </c>
       <c r="B457" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C457">
         <v>20120930</v>
@@ -11449,7 +11440,7 @@
         <v>3</v>
       </c>
       <c r="F457" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G457">
         <v>20120701</v>
@@ -11460,7 +11451,7 @@
         <v>3</v>
       </c>
       <c r="B458" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C458">
         <v>20121231</v>
@@ -11472,7 +11463,7 @@
         <v>6</v>
       </c>
       <c r="F458" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G458">
         <v>20121001</v>
@@ -11483,7 +11474,7 @@
         <v>3</v>
       </c>
       <c r="B459" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C459">
         <v>20121231</v>
@@ -11495,7 +11486,7 @@
         <v>6</v>
       </c>
       <c r="F459" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G459">
         <v>20121001</v>
@@ -11506,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="B460" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C460">
         <v>20121231</v>
@@ -11518,7 +11509,7 @@
         <v>6</v>
       </c>
       <c r="F460" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G460">
         <v>20121001</v>
@@ -11529,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="B461" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C461">
         <v>20121231</v>
@@ -11541,7 +11532,7 @@
         <v>6</v>
       </c>
       <c r="F461" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G461">
         <v>20121001</v>
@@ -11552,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="B462" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C462">
         <v>20121231</v>
@@ -11564,7 +11555,7 @@
         <v>6</v>
       </c>
       <c r="F462" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G462">
         <v>20121001</v>
@@ -11575,7 +11566,7 @@
         <v>1</v>
       </c>
       <c r="B463" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C463">
         <v>20121231</v>
@@ -11587,7 +11578,7 @@
         <v>6</v>
       </c>
       <c r="F463" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G463">
         <v>20121001</v>
@@ -11598,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="B464" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C464">
         <v>20130331</v>
@@ -11610,7 +11601,7 @@
         <v>6</v>
       </c>
       <c r="F464" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G464">
         <v>20130101</v>
@@ -11621,7 +11612,7 @@
         <v>1</v>
       </c>
       <c r="B465" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C465">
         <v>20130331</v>
@@ -11633,7 +11624,7 @@
         <v>6</v>
       </c>
       <c r="F465" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G465">
         <v>20130101</v>
@@ -11644,7 +11635,7 @@
         <v>1</v>
       </c>
       <c r="B466" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C466">
         <v>20130331</v>
@@ -11656,7 +11647,7 @@
         <v>6</v>
       </c>
       <c r="F466" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G466">
         <v>20130101</v>
@@ -11667,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="B467" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C467">
         <v>20130331</v>
@@ -11679,7 +11670,7 @@
         <v>6</v>
       </c>
       <c r="F467" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G467">
         <v>20130101</v>
@@ -11690,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="B468" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C468">
         <v>20130331</v>
@@ -11702,7 +11693,7 @@
         <v>6</v>
       </c>
       <c r="F468" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G468">
         <v>20130101</v>
@@ -11713,7 +11704,7 @@
         <v>1</v>
       </c>
       <c r="B469" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C469">
         <v>20130331</v>
@@ -11725,7 +11716,7 @@
         <v>6</v>
       </c>
       <c r="F469" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G469">
         <v>20130101</v>
@@ -11736,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="B470" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C470">
         <v>20130630</v>
@@ -11748,7 +11739,7 @@
         <v>6</v>
       </c>
       <c r="F470" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G470">
         <v>20130401</v>
@@ -11759,7 +11750,7 @@
         <v>1</v>
       </c>
       <c r="B471" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C471">
         <v>20130630</v>
@@ -11771,7 +11762,7 @@
         <v>6</v>
       </c>
       <c r="F471" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G471">
         <v>20130401</v>
@@ -11782,7 +11773,7 @@
         <v>1</v>
       </c>
       <c r="B472" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C472">
         <v>20130630</v>
@@ -11794,7 +11785,7 @@
         <v>6</v>
       </c>
       <c r="F472" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G472">
         <v>20130401</v>
@@ -11805,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="B473" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C473">
         <v>20130630</v>
@@ -11817,7 +11808,7 @@
         <v>6</v>
       </c>
       <c r="F473" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G473">
         <v>20130401</v>
@@ -11828,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="B474" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C474">
         <v>20130630</v>
@@ -11840,7 +11831,7 @@
         <v>6</v>
       </c>
       <c r="F474" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G474">
         <v>20130401</v>
@@ -11851,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="B475" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C475">
         <v>20130630</v>
@@ -11863,7 +11854,7 @@
         <v>6</v>
       </c>
       <c r="F475" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G475">
         <v>20130401</v>
@@ -11874,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="B476" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C476">
         <v>20130930</v>
@@ -11886,7 +11877,7 @@
         <v>2</v>
       </c>
       <c r="F476" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G476">
         <v>20130701</v>
@@ -11897,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="B477" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C477">
         <v>20130930</v>
@@ -11909,7 +11900,7 @@
         <v>2</v>
       </c>
       <c r="F477" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G477">
         <v>20130701</v>
@@ -11920,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="B478" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C478">
         <v>20131231</v>
@@ -11932,7 +11923,7 @@
         <v>4</v>
       </c>
       <c r="F478" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G478">
         <v>20131001</v>
@@ -11943,7 +11934,7 @@
         <v>1</v>
       </c>
       <c r="B479" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C479">
         <v>20131231</v>
@@ -11955,7 +11946,7 @@
         <v>4</v>
       </c>
       <c r="F479" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G479">
         <v>20131001</v>
@@ -11966,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="B480" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C480">
         <v>20131231</v>
@@ -11978,7 +11969,7 @@
         <v>4</v>
       </c>
       <c r="F480" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G480">
         <v>20131001</v>
@@ -11989,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="B481" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C481">
         <v>20131231</v>
@@ -12001,7 +11992,7 @@
         <v>4</v>
       </c>
       <c r="F481" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G481">
         <v>20131001</v>
@@ -12012,7 +12003,7 @@
         <v>2</v>
       </c>
       <c r="B482" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C482">
         <v>20140331</v>
@@ -12024,7 +12015,7 @@
         <v>4</v>
       </c>
       <c r="F482" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G482">
         <v>20140101</v>
@@ -12035,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="B483" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C483">
         <v>20140331</v>
@@ -12047,7 +12038,7 @@
         <v>4</v>
       </c>
       <c r="F483" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G483">
         <v>20140101</v>
@@ -12058,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="B484" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C484">
         <v>20140331</v>
@@ -12070,7 +12061,7 @@
         <v>4</v>
       </c>
       <c r="F484" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G484">
         <v>20140101</v>
@@ -12081,7 +12072,7 @@
         <v>1</v>
       </c>
       <c r="B485" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C485">
         <v>20140331</v>
@@ -12093,7 +12084,7 @@
         <v>4</v>
       </c>
       <c r="F485" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G485">
         <v>20140101</v>
@@ -12104,7 +12095,7 @@
         <v>1</v>
       </c>
       <c r="B486" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C486">
         <v>20140630</v>
@@ -12116,7 +12107,7 @@
         <v>1</v>
       </c>
       <c r="F486" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G486">
         <v>20140401</v>
@@ -12127,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="B487" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C487">
         <v>20140930</v>
@@ -12139,7 +12130,7 @@
         <v>3</v>
       </c>
       <c r="F487" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G487">
         <v>20140701</v>
@@ -12150,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="B488" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C488">
         <v>20140930</v>
@@ -12162,7 +12153,7 @@
         <v>3</v>
       </c>
       <c r="F488" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G488">
         <v>20140701</v>
@@ -12173,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="B489" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C489">
         <v>20140930</v>
@@ -12185,7 +12176,7 @@
         <v>3</v>
       </c>
       <c r="F489" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G489">
         <v>20140701</v>
@@ -12196,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="B490" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C490">
         <v>20141231</v>
@@ -12208,7 +12199,7 @@
         <v>1</v>
       </c>
       <c r="F490" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G490">
         <v>20141001</v>
@@ -12219,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="B491" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C491">
         <v>20150331</v>
@@ -12231,7 +12222,7 @@
         <v>2</v>
       </c>
       <c r="F491" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G491">
         <v>20150101</v>
@@ -12242,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="B492" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C492">
         <v>20150331</v>
@@ -12254,7 +12245,7 @@
         <v>2</v>
       </c>
       <c r="F492" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G492">
         <v>20150101</v>
@@ -12265,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="B493" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C493">
         <v>20150630</v>
@@ -12277,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="F493" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G493">
         <v>20150401</v>
@@ -12288,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="B494" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C494">
         <v>20150630</v>
@@ -12300,7 +12291,7 @@
         <v>2</v>
       </c>
       <c r="F494" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G494">
         <v>20150401</v>
@@ -12311,7 +12302,7 @@
         <v>2</v>
       </c>
       <c r="B495" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C495">
         <v>20150930</v>
@@ -12323,7 +12314,7 @@
         <v>5</v>
       </c>
       <c r="F495" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G495">
         <v>20150701</v>
@@ -12334,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="B496" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C496">
         <v>20150930</v>
@@ -12346,7 +12337,7 @@
         <v>5</v>
       </c>
       <c r="F496" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G496">
         <v>20150701</v>
@@ -12357,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="B497" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C497">
         <v>20150930</v>
@@ -12369,7 +12360,7 @@
         <v>5</v>
       </c>
       <c r="F497" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G497">
         <v>20150701</v>
@@ -12380,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="B498" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C498">
         <v>20150930</v>
@@ -12392,7 +12383,7 @@
         <v>5</v>
       </c>
       <c r="F498" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G498">
         <v>20150701</v>
@@ -12403,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="B499" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C499">
         <v>20150930</v>
@@ -12415,7 +12406,7 @@
         <v>5</v>
       </c>
       <c r="F499" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G499">
         <v>20150701</v>
@@ -12426,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="B500" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C500">
         <v>20151231</v>
@@ -12438,7 +12429,7 @@
         <v>7</v>
       </c>
       <c r="F500" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G500">
         <v>20151001</v>
@@ -12449,7 +12440,7 @@
         <v>1</v>
       </c>
       <c r="B501" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C501">
         <v>20151231</v>
@@ -12461,7 +12452,7 @@
         <v>7</v>
       </c>
       <c r="F501" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G501">
         <v>20151001</v>
@@ -12472,7 +12463,7 @@
         <v>1</v>
       </c>
       <c r="B502" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C502">
         <v>20151231</v>
@@ -12484,7 +12475,7 @@
         <v>7</v>
       </c>
       <c r="F502" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G502">
         <v>20151001</v>
@@ -12495,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="B503" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C503">
         <v>20151231</v>
@@ -12507,7 +12498,7 @@
         <v>7</v>
       </c>
       <c r="F503" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G503">
         <v>20151001</v>
@@ -12518,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="B504" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C504">
         <v>20151231</v>
@@ -12530,7 +12521,7 @@
         <v>7</v>
       </c>
       <c r="F504" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G504">
         <v>20151001</v>
@@ -12541,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="B505" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C505">
         <v>20151231</v>
@@ -12553,7 +12544,7 @@
         <v>7</v>
       </c>
       <c r="F505" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G505">
         <v>20151001</v>
@@ -12564,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="B506" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C506">
         <v>20151231</v>
@@ -12576,7 +12567,7 @@
         <v>7</v>
       </c>
       <c r="F506" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G506">
         <v>20151001</v>
@@ -12587,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="B507" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C507">
         <v>20160331</v>
@@ -12599,7 +12590,7 @@
         <v>5</v>
       </c>
       <c r="F507" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G507">
         <v>20160101</v>
@@ -12610,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="B508" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C508">
         <v>20160331</v>
@@ -12622,7 +12613,7 @@
         <v>5</v>
       </c>
       <c r="F508" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G508">
         <v>20160101</v>
@@ -12633,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="B509" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C509">
         <v>20160331</v>
@@ -12645,7 +12636,7 @@
         <v>5</v>
       </c>
       <c r="F509" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G509">
         <v>20160101</v>
@@ -12656,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="B510" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C510">
         <v>20160331</v>
@@ -12668,7 +12659,7 @@
         <v>5</v>
       </c>
       <c r="F510" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G510">
         <v>20160101</v>
@@ -12679,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="B511" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C511">
         <v>20160331</v>
@@ -12691,7 +12682,7 @@
         <v>5</v>
       </c>
       <c r="F511" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G511">
         <v>20160101</v>
@@ -12702,7 +12693,7 @@
         <v>2</v>
       </c>
       <c r="B512" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C512">
         <v>20160630</v>
@@ -12714,7 +12705,7 @@
         <v>5</v>
       </c>
       <c r="F512" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G512">
         <v>20160401</v>
@@ -12725,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="B513" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C513">
         <v>20160630</v>
@@ -12737,7 +12728,7 @@
         <v>5</v>
       </c>
       <c r="F513" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G513">
         <v>20160401</v>
@@ -12748,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="B514" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C514">
         <v>20160630</v>
@@ -12760,7 +12751,7 @@
         <v>5</v>
       </c>
       <c r="F514" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G514">
         <v>20160401</v>
@@ -12771,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="B515" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C515">
         <v>20160630</v>
@@ -12783,7 +12774,7 @@
         <v>5</v>
       </c>
       <c r="F515" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G515">
         <v>20160401</v>
@@ -12794,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="B516" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C516">
         <v>20160630</v>
@@ -12806,7 +12797,7 @@
         <v>5</v>
       </c>
       <c r="F516" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G516">
         <v>20160401</v>
@@ -12817,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="B517" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C517">
         <v>20160930</v>
@@ -12829,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="F517" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G517">
         <v>20160701</v>
@@ -12840,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="B518" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C518">
         <v>20161231</v>
@@ -12852,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="F518" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G518">
         <v>20161001</v>
@@ -12863,7 +12854,7 @@
         <v>2</v>
       </c>
       <c r="B519" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C519">
         <v>20170331</v>
@@ -12875,7 +12866,7 @@
         <v>3</v>
       </c>
       <c r="F519" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G519">
         <v>20170101</v>
@@ -12886,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="B520" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C520">
         <v>20170331</v>
@@ -12898,7 +12889,7 @@
         <v>3</v>
       </c>
       <c r="F520" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G520">
         <v>20170101</v>
@@ -12909,7 +12900,7 @@
         <v>1</v>
       </c>
       <c r="B521" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C521">
         <v>20170331</v>
@@ -12921,7 +12912,7 @@
         <v>3</v>
       </c>
       <c r="F521" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G521">
         <v>20170101</v>
@@ -12932,7 +12923,7 @@
         <v>4</v>
       </c>
       <c r="B522" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C522">
         <v>20170630</v>
@@ -12944,7 +12935,7 @@
         <v>4</v>
       </c>
       <c r="F522" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G522">
         <v>20170401</v>
@@ -12955,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="B523" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C523">
         <v>20170630</v>
@@ -12967,7 +12958,7 @@
         <v>4</v>
       </c>
       <c r="F523" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G523">
         <v>20170401</v>
@@ -12978,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="B524" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C524">
         <v>20170630</v>
@@ -12990,7 +12981,7 @@
         <v>4</v>
       </c>
       <c r="F524" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G524">
         <v>20170401</v>
@@ -13001,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="B525" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C525">
         <v>20170630</v>
@@ -13013,7 +13004,7 @@
         <v>4</v>
       </c>
       <c r="F525" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G525">
         <v>20170401</v>
@@ -13024,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="B526" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C526">
         <v>20170930</v>
@@ -13036,7 +13027,7 @@
         <v>4</v>
       </c>
       <c r="F526" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G526">
         <v>20170701</v>
@@ -13047,7 +13038,7 @@
         <v>1</v>
       </c>
       <c r="B527" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C527">
         <v>20170930</v>
@@ -13059,7 +13050,7 @@
         <v>4</v>
       </c>
       <c r="F527" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G527">
         <v>20170701</v>
@@ -13070,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="B528" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C528">
         <v>20170930</v>
@@ -13082,7 +13073,7 @@
         <v>4</v>
       </c>
       <c r="F528" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G528">
         <v>20170701</v>
@@ -13093,7 +13084,7 @@
         <v>1</v>
       </c>
       <c r="B529" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C529">
         <v>20170930</v>
@@ -13105,7 +13096,7 @@
         <v>4</v>
       </c>
       <c r="F529" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G529">
         <v>20170701</v>
@@ -13116,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="B530" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C530">
         <v>20180331</v>
@@ -13128,7 +13119,7 @@
         <v>5</v>
       </c>
       <c r="F530" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G530">
         <v>20180101</v>
@@ -13139,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="B531" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C531">
         <v>20180331</v>
@@ -13151,7 +13142,7 @@
         <v>5</v>
       </c>
       <c r="F531" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G531">
         <v>20180101</v>
@@ -13162,7 +13153,7 @@
         <v>1</v>
       </c>
       <c r="B532" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C532">
         <v>20180331</v>
@@ -13174,7 +13165,7 @@
         <v>5</v>
       </c>
       <c r="F532" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G532">
         <v>20180101</v>
@@ -13185,7 +13176,7 @@
         <v>1</v>
       </c>
       <c r="B533" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C533">
         <v>20180331</v>
@@ -13197,7 +13188,7 @@
         <v>5</v>
       </c>
       <c r="F533" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G533">
         <v>20180101</v>
@@ -13208,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="B534" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C534">
         <v>20180331</v>
@@ -13220,7 +13211,7 @@
         <v>5</v>
       </c>
       <c r="F534" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G534">
         <v>20180101</v>
@@ -13231,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B535" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C535">
         <v>20180630</v>
@@ -13243,7 +13234,7 @@
         <v>6</v>
       </c>
       <c r="F535" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G535">
         <v>20180401</v>
@@ -13254,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="B536" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C536">
         <v>20180630</v>
@@ -13266,7 +13257,7 @@
         <v>6</v>
       </c>
       <c r="F536" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G536">
         <v>20180401</v>
@@ -13277,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="B537" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C537">
         <v>20180630</v>
@@ -13289,7 +13280,7 @@
         <v>6</v>
       </c>
       <c r="F537" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G537">
         <v>20180401</v>
@@ -13300,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="B538" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C538">
         <v>20180630</v>
@@ -13312,7 +13303,7 @@
         <v>6</v>
       </c>
       <c r="F538" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G538">
         <v>20180401</v>
@@ -13323,7 +13314,7 @@
         <v>1</v>
       </c>
       <c r="B539" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C539">
         <v>20180630</v>
@@ -13335,7 +13326,7 @@
         <v>6</v>
       </c>
       <c r="F539" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G539">
         <v>20180401</v>
@@ -13346,7 +13337,7 @@
         <v>1</v>
       </c>
       <c r="B540" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C540">
         <v>20180630</v>
@@ -13358,7 +13349,7 @@
         <v>6</v>
       </c>
       <c r="F540" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G540">
         <v>20180401</v>
@@ -13369,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="B541" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C541">
         <v>20180930</v>
@@ -13381,7 +13372,7 @@
         <v>4</v>
       </c>
       <c r="F541" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G541">
         <v>20180701</v>
@@ -13392,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="B542" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C542">
         <v>20180930</v>
@@ -13404,7 +13395,7 @@
         <v>4</v>
       </c>
       <c r="F542" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G542">
         <v>20180701</v>
@@ -13415,7 +13406,7 @@
         <v>1</v>
       </c>
       <c r="B543" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C543">
         <v>20180930</v>
@@ -13427,7 +13418,7 @@
         <v>4</v>
       </c>
       <c r="F543" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G543">
         <v>20180701</v>
@@ -13438,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="B544" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C544">
         <v>20180930</v>
@@ -13450,33 +13441,33 @@
         <v>4</v>
       </c>
       <c r="F544" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G544">
         <v>20180701</v>
       </c>
     </row>
     <row r="545" spans="1:7">
-      <c r="A545" t="s">
+      <c r="A545">
+        <v>1</v>
+      </c>
+      <c r="B545" t="s">
         <v>7</v>
       </c>
-      <c r="B545" t="s">
-        <v>8</v>
-      </c>
-      <c r="C545" t="s">
-        <v>186</v>
-      </c>
-      <c r="D545" t="s">
-        <v>7</v>
+      <c r="C545">
+        <v>20181231</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
       </c>
       <c r="E545">
         <v>1</v>
       </c>
       <c r="F545" t="s">
-        <v>187</v>
-      </c>
-      <c r="G545" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="G545">
+        <v>20181001</v>
       </c>
     </row>
   </sheetData>
